--- a/result/NCDC_weather_data/stations_imputed/51334099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/51334099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O2" t="n">
         <v>60.44</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O3" t="n">
         <v>64.94</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>1.388988</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O4" t="n">
         <v>64.94</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -737,7 +749,9 @@
       <c r="M5" t="n">
         <v>2.212092</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O5" t="n">
         <v>66.56</v>
       </c>
@@ -747,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -793,7 +809,9 @@
       <c r="M6" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O6" t="n">
         <v>67.81999999999999</v>
       </c>
@@ -803,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -849,7 +869,9 @@
       <c r="M7" t="n">
         <v>1.080324</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O7" t="n">
         <v>71.78</v>
       </c>
@@ -859,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -905,7 +929,9 @@
       <c r="M8" t="n">
         <v>2.006316</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>10.47581579487179</v>
+      </c>
       <c r="O8" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -915,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -973,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1031,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1089,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1147,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.02033819484240688</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
